--- a/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
+++ b/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
   <si>
     <t>土地坐落</t>
   </si>
@@ -170,6 +170,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>華固(上市）</t>
   </si>
   <si>
@@ -186,6 +195,9 @@
   </si>
   <si>
     <t>兆宏(未上市）</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
   </si>
   <si>
     <t>財產種類</t>
@@ -1188,13 +1200,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1213,13 +1225,22 @@
       <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1236,13 +1257,22 @@
       <c r="G2" s="2">
         <v>102990</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1259,13 +1289,22 @@
       <c r="G3" s="2">
         <v>152630</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1282,13 +1321,22 @@
       <c r="G4" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1305,13 +1353,22 @@
       <c r="G5" s="2">
         <v>757480</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1328,13 +1385,22 @@
       <c r="G6" s="2">
         <v>120000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -1350,6 +1416,15 @@
       </c>
       <c r="G7" s="2">
         <v>112790</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1739</v>
       </c>
     </row>
   </sheetData>
@@ -1367,16 +1442,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1384,10 +1459,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1401,10 +1476,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1418,10 +1493,10 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -1435,16 +1510,16 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1452,16 +1527,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1469,16 +1544,16 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1486,16 +1561,16 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1503,16 +1578,16 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1520,10 +1595,10 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -1547,16 +1622,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1564,16 +1639,16 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1581,16 +1656,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1608,22 +1683,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1634,19 +1709,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2">
         <v>90000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
+++ b/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="102">
   <si>
     <t>土地坐落</t>
   </si>
@@ -170,6 +170,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -195,6 +198,9 @@
   </si>
   <si>
     <t>兆宏(未上市）</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-27</t>
@@ -1200,13 +1206,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1234,13 +1240,16 @@
       <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1258,21 +1267,24 @@
         <v>102990</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2">
         <v>1739</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1290,21 +1302,24 @@
         <v>152630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2">
+        <v>60</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="2">
         <v>1739</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1322,21 +1337,24 @@
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2">
+        <v>60</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="2">
         <v>1739</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1354,21 +1372,24 @@
         <v>757480</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="2">
+        <v>60</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="2">
         <v>1739</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1386,21 +1407,24 @@
         <v>120000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="2">
+        <v>60</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2">
         <v>1739</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -1418,12 +1442,15 @@
         <v>112790</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="2">
+        <v>60</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2">
         <v>1739</v>
       </c>
     </row>
@@ -1442,16 +1469,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1459,10 +1486,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1476,10 +1503,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1493,10 +1520,10 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -1510,16 +1537,16 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1527,16 +1554,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1544,16 +1571,16 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1561,16 +1588,16 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1578,16 +1605,16 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1595,10 +1622,10 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -1622,16 +1649,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1639,16 +1666,16 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1656,16 +1683,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1683,22 +1710,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1709,19 +1736,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2">
         <v>90000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
+++ b/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="107">
   <si>
     <t>土地坐落</t>
   </si>
@@ -173,6 +173,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -182,6 +185,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>華固(上市）</t>
   </si>
   <si>
@@ -203,7 +212,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmp59331</t>
   </si>
   <si>
     <t>財產種類</t>
@@ -1206,13 +1221,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1243,13 +1258,22 @@
       <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -1267,24 +1291,33 @@
         <v>102990</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2">
+        <v>64</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2">
         <v>1739</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1302,24 +1335,33 @@
         <v>152630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="2">
+        <v>64</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2">
         <v>1739</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1337,24 +1379,33 @@
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="2">
+        <v>64</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2">
         <v>1739</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -1372,24 +1423,33 @@
         <v>757480</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="2">
+        <v>64</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2">
         <v>1739</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1407,24 +1467,33 @@
         <v>120000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="2">
+        <v>64</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="2">
         <v>1739</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -1442,16 +1511,25 @@
         <v>112790</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2">
+        <v>64</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="2">
         <v>1739</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="2">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1469,16 +1547,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1486,10 +1564,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1503,10 +1581,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1520,10 +1598,10 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -1537,16 +1615,16 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1554,16 +1632,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1571,16 +1649,16 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1588,16 +1666,16 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1605,16 +1683,16 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1622,10 +1700,10 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -1649,16 +1727,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1666,16 +1744,16 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1683,16 +1761,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1710,22 +1788,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1736,19 +1814,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2">
         <v>90000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
+++ b/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
@@ -21,9 +21,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="107">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="112">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市中山區北安段三小段06290000地號</t>
+  </si>
+  <si>
+    <t>臺北市内湖區石潭段四小段01720000地號</t>
+  </si>
+  <si>
+    <t>10000分之86</t>
+  </si>
+  <si>
+    <t>10000分之1594</t>
+  </si>
+  <si>
+    <t>李貴敏</t>
+  </si>
+  <si>
+    <t>84年</t>
+  </si>
+  <si>
+    <t>96年</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmp59331</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,40 +125,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市中山區北安段三小段 0629-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市内湖區石潭段四小段 0172-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 86</t>
-  </si>
-  <si>
-    <t>10000分之 1594</t>
-  </si>
-  <si>
-    <t>李貴敏</t>
-  </si>
-  <si>
-    <t>84年</t>
-  </si>
-  <si>
-    <t>96年</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市中山區北安段三小段 00359-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市內湖區石潭段四小段 04171-000 建號</t>
+    <t>臺北市中山區北安段三小段00359000建號</t>
+  </si>
+  <si>
+    <t>臺北市內湖區石潭段四小段04171000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -86,7 +137,7 @@
     <t>85年</t>
   </si>
   <si>
-    <t>(超過五年,單 獨:122.45 平 方公尺/共 有:7,265.21 平方公尺）</t>
+    <t>(超過五年單獨:122.45平方公尺共有:7265.21平方公尺）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -122,7 +173,7 @@
     <t>第一商業銀行</t>
   </si>
   <si>
-    <t>第--商業銀行</t>
+    <t>第商業銀行</t>
   </si>
   <si>
     <t>中國信託商業銀行</t>
@@ -152,12 +203,6 @@
     <t>美金</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -170,27 +215,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>華固(上市）</t>
   </si>
   <si>
@@ -212,19 +236,10 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-27</t>
-  </si>
-  <si>
-    <t>tmp59331</t>
-  </si>
-  <si>
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
@@ -281,7 +296,7 @@
     <t>48g</t>
   </si>
   <si>
-    <t>李貴敏 .</t>
+    <t>李貴敏.</t>
   </si>
   <si>
     <t>無法估價</t>
@@ -302,10 +317,10 @@
     <t>南山人壽</t>
   </si>
   <si>
-    <t>新20年期特別增值分紅養老 壽險</t>
-  </si>
-  <si>
-    <t>新20年期終身費特別增值分 紅終生保險</t>
+    <t>新20年期特別增值分紅養老壽險</t>
+  </si>
+  <si>
+    <t>新20年期終身費特別增值分紅終生保險</t>
   </si>
   <si>
     <t>N116286352</t>
@@ -335,10 +350,10 @@
     <t>國際通商法律事務所</t>
   </si>
   <si>
-    <t>臺北市松山區敦化北路168 號15樓</t>
-  </si>
-  <si>
-    <t>自民國82 年</t>
+    <t>臺北市松山區敦化北路168號15樓</t>
+  </si>
+  <si>
+    <t>自民國82年</t>
   </si>
   <si>
     <t>合夥</t>
@@ -700,13 +715,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,56 +743,119 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>3715.58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1739</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1155.63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1739</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
     </row>
@@ -796,25 +874,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -822,25 +900,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>122.45</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -848,25 +926,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2">
         <v>334.65</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -884,22 +962,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -907,19 +985,19 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>3500</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2">
         <v>1000000</v>
@@ -940,22 +1018,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -963,16 +1041,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -984,16 +1062,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1005,16 +1083,16 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1026,16 +1104,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1047,16 +1125,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1068,16 +1146,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1089,16 +1167,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1110,16 +1188,16 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1131,16 +1209,16 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1152,16 +1230,16 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1173,16 +1251,16 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2">
         <v>0.04</v>
@@ -1196,16 +1274,16 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2">
         <v>15524.57</v>
@@ -1229,43 +1307,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1273,10 +1351,10 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
         <v>10299</v>
@@ -1285,28 +1363,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2">
         <v>102990</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>1739</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2">
         <v>63</v>
@@ -1317,10 +1395,10 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>15263</v>
@@ -1329,28 +1407,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2">
         <v>152630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2">
         <v>1739</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N3" s="2">
         <v>64</v>
@@ -1361,10 +1439,10 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
         <v>20000</v>
@@ -1373,28 +1451,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2">
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2">
         <v>1739</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N4" s="2">
         <v>65</v>
@@ -1405,10 +1483,10 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>75748</v>
@@ -1417,28 +1495,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2">
         <v>757480</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2">
         <v>1739</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N5" s="2">
         <v>66</v>
@@ -1449,10 +1527,10 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>12000</v>
@@ -1461,28 +1539,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G6" s="2">
         <v>120000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2">
         <v>1739</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N6" s="2">
         <v>67</v>
@@ -1493,10 +1571,10 @@
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>11279</v>
@@ -1505,28 +1583,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G7" s="2">
         <v>112790</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L7" s="2">
         <v>1739</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N7" s="2">
         <v>68</v>
@@ -1547,16 +1625,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1564,13 +1642,13 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
         <v>5000000</v>
@@ -1581,13 +1659,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>6000000</v>
@@ -1598,13 +1676,13 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>1500000</v>
@@ -1615,16 +1693,16 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1632,16 +1710,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1649,16 +1727,16 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1666,16 +1744,16 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1683,16 +1761,16 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1700,13 +1778,13 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2">
         <v>80000</v>
@@ -1727,16 +1805,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1744,16 +1822,16 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1761,16 +1839,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1788,22 +1866,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1811,22 +1889,22 @@
         <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2">
         <v>90000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
+++ b/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -65,24 +65,21 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市中山區北安段三小段06290000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市内湖區石潭段四小段01720000地號</t>
   </si>
   <si>
-    <t>10000分之86</t>
-  </si>
-  <si>
     <t>10000分之1594</t>
   </si>
   <si>
     <t>李貴敏</t>
   </si>
   <si>
-    <t>84年</t>
-  </si>
-  <si>
     <t>96年</t>
   </si>
   <si>
@@ -104,75 +101,36 @@
     <t>tmp59331</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市中山區北安段三小段00359000建號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>85年</t>
+  </si>
+  <si>
+    <t>(超過五年單獨:122.45平方公尺共有:7265.21平方公尺）</t>
+  </si>
+  <si>
     <t>臺北市內湖區石潭段四小段04171000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>85年</t>
-  </si>
-  <si>
-    <t>(超過五年單獨:122.45平方公尺共有:7265.21平方公尺）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>豐田</t>
   </si>
   <si>
     <t>99年</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>第一商業銀行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>第商業銀行</t>
   </si>
   <si>
@@ -194,12 +152,6 @@
     <t>中華郵政股份有限公司</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -212,12 +164,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>華固(上市）</t>
-  </si>
-  <si>
     <t>第一金(上市）</t>
   </si>
   <si>
@@ -236,18 +182,12 @@
     <t>stock</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>鑽石飾品</t>
   </si>
   <si>
+    <t>5套</t>
+  </si>
+  <si>
     <t>珍珠飾品</t>
   </si>
   <si>
@@ -272,9 +212,6 @@
     <t>黃金存摺</t>
   </si>
   <si>
-    <t>5套</t>
-  </si>
-  <si>
     <t>6套</t>
   </si>
   <si>
@@ -302,49 +239,19 @@
     <t>無法估價</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
     <t>新20年期特別增值分紅養老壽險</t>
   </si>
   <si>
+    <t>N116286352</t>
+  </si>
+  <si>
     <t>新20年期終身費特別增值分紅終生保險</t>
   </si>
   <si>
-    <t>N116286352</t>
-  </si>
-  <si>
     <t>N112682349</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>國際通商法律事務所</t>
@@ -715,13 +622,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,19 +671,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>3715.58</v>
+        <v>1155.63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -785,19 +698,19 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>18</v>
@@ -806,57 +719,16 @@
         <v>1739</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1155.63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1739</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="2">
-        <v>15</v>
+      <c r="P2" s="2">
+        <v>0.1594</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>184.207422</v>
       </c>
     </row>
   </sheetData>
@@ -866,7 +738,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -874,77 +746,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1">
+        <v>122.45</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
+        <v>334.65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2">
-        <v>122.45</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2">
-        <v>334.65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +800,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3500</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -962,333 +841,254 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>1856851</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3500</v>
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>1856851</v>
+        <v>83562</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>83562</v>
+        <v>101986</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>101986</v>
+        <v>8222</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>8222</v>
+        <v>86355</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>86355</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>44956</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>1000</v>
+        <v>207092</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>207092</v>
+        <v>930984</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>930984</v>
+        <v>852053</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>0.04</v>
+      </c>
       <c r="G11" s="2">
-        <v>852053</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2">
-        <v>0.04</v>
+        <v>15524.57</v>
       </c>
       <c r="G12" s="2">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>56</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="2">
-        <v>15524.57</v>
-      </c>
-      <c r="G13" s="2">
         <v>457974.81</v>
       </c>
     </row>
@@ -1299,7 +1099,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1313,16 +1113,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1348,34 +1148,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>10299</v>
+        <v>15263</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
-        <v>102990</v>
+        <v>152630</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>18</v>
@@ -1384,42 +1184,42 @@
         <v>1739</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>15263</v>
+        <v>20000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G3" s="2">
-        <v>152630</v>
+        <v>200000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -1428,42 +1228,42 @@
         <v>1739</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>20000</v>
+        <v>75748</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2">
-        <v>200000</v>
+        <v>757480</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>18</v>
@@ -1472,42 +1272,42 @@
         <v>1739</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>75748</v>
+        <v>12000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G5" s="2">
-        <v>757480</v>
+        <v>120000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>18</v>
@@ -1516,42 +1316,42 @@
         <v>1739</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2">
-        <v>12000</v>
+        <v>11279</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="G6" s="2">
-        <v>120000</v>
+        <v>112790</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>18</v>
@@ -1560,53 +1360,9 @@
         <v>1739</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N6" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>68</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <v>11279</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="2">
-        <v>112790</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1739</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="2">
         <v>68</v>
       </c>
     </row>
@@ -1617,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1625,168 +1381,151 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>18</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5000000</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2">
-        <v>5000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="2">
-        <v>6000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1500000</v>
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>96</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="E9" s="2">
         <v>80000</v>
       </c>
     </row>
@@ -1797,7 +1536,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1805,50 +1544,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>102</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1858,53 +1580,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
+      </c>
+      <c r="E1" s="1">
+        <v>90000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>115</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="2">
-        <v>90000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
+++ b/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -71,15 +71,24 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市中山區北安段三小段06290000地號</t>
+  </si>
+  <si>
     <t>臺北市内湖區石潭段四小段01720000地號</t>
   </si>
   <si>
+    <t>10000分之86</t>
+  </si>
+  <si>
     <t>10000分之1594</t>
   </si>
   <si>
     <t>李貴敏</t>
   </si>
   <si>
+    <t>84年</t>
+  </si>
+  <si>
     <t>96年</t>
   </si>
   <si>
@@ -104,6 +113,9 @@
     <t>臺北市中山區北安段三小段00359000建號</t>
   </si>
   <si>
+    <t>臺北市內湖區石潭段四小段04171000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
@@ -113,9 +125,6 @@
     <t>(超過五年單獨:122.45平方公尺共有:7265.21平方公尺）</t>
   </si>
   <si>
-    <t>臺北市內湖區石潭段四小段04171000建號</t>
-  </si>
-  <si>
     <t>豐田</t>
   </si>
   <si>
@@ -162,6 +171,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>華固(上市）</t>
   </si>
   <si>
     <t>第一金(上市）</t>
@@ -622,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -680,54 +692,107 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1155.63</v>
+        <v>3715.58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>1739</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0086</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>31.953988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1155.63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2">
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1739</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2">
         <v>15</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="2">
         <v>0.1594</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q3" s="2">
         <v>184.207422</v>
       </c>
     </row>
@@ -738,59 +803,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2">
+        <v>122.45</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1">
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1739</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>122.45</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
+        <v>334.65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1739</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="O3" s="2">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>334.65</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -800,29 +972,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1">
         <v>3500</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3500</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2">
         <v>1000000</v>
       </c>
     </row>
@@ -833,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -841,16 +1036,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -859,236 +1054,257 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>83562</v>
+        <v>1856851</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>101986</v>
+        <v>83562</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>8222</v>
+        <v>101986</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>86355</v>
+        <v>8222</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>44956</v>
+        <v>86355</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>1000</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>207092</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>930984</v>
+        <v>207092</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>852053</v>
+        <v>930984</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.04</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>1.18</v>
+        <v>852053</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>56</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
         <v>15524.57</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>457974.81</v>
       </c>
     </row>
@@ -1099,7 +1315,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1113,13 +1329,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1148,221 +1364,265 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>15263</v>
+        <v>10299</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
-        <v>152630</v>
+        <v>102990</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L2" s="2">
         <v>1739</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>20000</v>
+        <v>15263</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
-        <v>200000</v>
+        <v>152630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L3" s="2">
         <v>1739</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N3" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>75748</v>
+        <v>20000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
-        <v>757480</v>
+        <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2">
         <v>1739</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>12000</v>
+        <v>75748</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2">
-        <v>120000</v>
+        <v>757480</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2">
         <v>1739</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N5" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>11279</v>
+        <v>12000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
-        <v>112790</v>
+        <v>120000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2">
         <v>1739</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N6" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>11279</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2">
+        <v>112790</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1739</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="2">
         <v>68</v>
       </c>
     </row>
@@ -1373,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1381,13 +1641,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1">
         <v>5000000</v>
@@ -1395,137 +1655,154 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
-        <v>1500000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1500000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
+        <v>95</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
         <v>96</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="B10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
         <v>80000</v>
       </c>
     </row>
@@ -1536,7 +1813,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1544,33 +1821,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>102</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1580,30 +1874,53 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1">
         <v>90000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2">
+        <v>90000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
+++ b/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="86">
   <si>
     <t>name</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>(超過五年單獨:122.45平方公尺共有:7265.21平方公尺）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>豐田</t>
@@ -972,38 +975,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1">
-        <v>3500</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>3500</v>
@@ -1012,13 +1036,34 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>1000000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1739</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1036,13 +1081,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1057,13 +1102,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1078,13 +1123,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1099,13 +1144,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1120,13 +1165,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1141,13 +1186,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1162,13 +1207,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1183,13 +1228,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1204,13 +1249,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1225,13 +1270,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1246,13 +1291,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1267,13 +1312,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -1290,13 +1335,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1329,13 +1374,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1367,7 +1412,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1379,13 +1424,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
         <v>102990</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1411,7 +1456,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1423,13 +1468,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2">
         <v>152630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1455,7 +1500,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1467,13 +1512,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2">
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1499,7 +1544,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1511,13 +1556,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2">
         <v>757480</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1543,7 +1588,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -1555,13 +1600,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2">
         <v>120000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
@@ -1587,7 +1632,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -1599,13 +1644,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2">
         <v>112790</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>26</v>
@@ -1641,10 +1686,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -1658,10 +1703,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1675,10 +1720,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -1692,10 +1737,10 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -1709,16 +1754,16 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1726,16 +1771,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1743,16 +1788,16 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1760,16 +1805,16 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1777,16 +1822,16 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1794,10 +1839,10 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -1821,16 +1866,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1838,16 +1883,16 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1855,16 +1900,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1885,19 +1930,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1">
         <v>90000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1908,19 +1953,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2">
         <v>90000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
+++ b/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -125,6 +125,9 @@
     <t>(超過五年單獨:122.45平方公尺共有:7265.21平方公尺）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -132,6 +135,9 @@
   </si>
   <si>
     <t>99年</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>第一商業銀行</t>
@@ -888,7 +894,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>26</v>
@@ -941,7 +947,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>26</v>
@@ -986,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1027,7 +1033,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>3500</v>
@@ -1036,7 +1042,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
@@ -1045,7 +1051,7 @@
         <v>1000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1081,13 +1087,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1102,13 +1108,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1123,13 +1129,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -1144,13 +1150,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1165,13 +1171,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1186,13 +1192,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
@@ -1207,13 +1213,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1228,13 +1234,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1249,13 +1255,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1270,13 +1276,13 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1291,13 +1297,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1312,13 +1318,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -1335,13 +1341,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1374,13 +1380,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1412,7 +1418,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1424,13 +1430,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>102990</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1456,7 +1462,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1468,13 +1474,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="2">
         <v>152630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1500,7 +1506,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1512,13 +1518,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2">
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1544,7 +1550,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1556,13 +1562,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G5" s="2">
         <v>757480</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1588,7 +1594,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -1600,13 +1606,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
         <v>120000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
@@ -1632,7 +1638,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -1644,13 +1650,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2">
         <v>112790</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>26</v>
@@ -1686,10 +1692,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -1703,10 +1709,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1720,10 +1726,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -1737,10 +1743,10 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -1754,16 +1760,16 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1771,16 +1777,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1788,16 +1794,16 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1805,16 +1811,16 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1822,16 +1828,16 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1839,10 +1845,10 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -1866,16 +1872,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1883,16 +1889,16 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1900,16 +1906,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1930,19 +1936,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1">
         <v>90000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1953,19 +1959,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>90000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
+++ b/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -140,46 +140,55 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>第一商業銀行</t>
   </si>
   <si>
+    <t>第商業銀行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行</t>
+  </si>
+  <si>
+    <t>安泰商業銀行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>第商業銀行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行</t>
-  </si>
-  <si>
-    <t>安泰商業銀行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>華固(上市）</t>
@@ -1079,13 +1088,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>39</v>
       </c>
@@ -1096,267 +1105,523 @@
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>1856851</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>1856851</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1739</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>83562</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1739</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>101986</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1739</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>8222</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1739</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>86355</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1739</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>44956</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1739</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1739</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>207092</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1739</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>930984</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1739</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>852053</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1739</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="G12" s="2">
         <v>1.18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1739</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="2">
-        <v>15524.57</v>
-      </c>
-      <c r="G13" s="2">
         <v>457974.81</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1739</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="2">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1380,13 +1645,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1418,7 +1683,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
@@ -1430,13 +1695,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2">
         <v>102990</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1462,7 +1727,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
@@ -1474,13 +1739,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2">
         <v>152630</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1506,7 +1771,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
@@ -1518,13 +1783,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G4" s="2">
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1550,7 +1815,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
@@ -1562,13 +1827,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2">
         <v>757480</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1594,7 +1859,7 @@
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
@@ -1606,13 +1871,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2">
         <v>120000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
@@ -1638,7 +1903,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -1650,13 +1915,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G7" s="2">
         <v>112790</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>26</v>
@@ -1692,10 +1957,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
@@ -1709,10 +1974,10 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1726,10 +1991,10 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
@@ -1743,10 +2008,10 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
@@ -1760,16 +2025,16 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1777,16 +2042,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1794,16 +2059,16 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1811,16 +2076,16 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1828,16 +2093,16 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1845,10 +2110,10 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -1872,16 +2137,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1889,16 +2154,16 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1906,16 +2171,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1936,19 +2201,19 @@
         <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1">
         <v>90000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1959,19 +2224,19 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2">
         <v>90000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
+++ b/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -215,48 +215,45 @@
     <t>鑽石飾品</t>
   </si>
   <si>
+    <t>珍珠飾品</t>
+  </si>
+  <si>
+    <t>手錶</t>
+  </si>
+  <si>
+    <t>寶玉飾品</t>
+  </si>
+  <si>
+    <t>古董家具</t>
+  </si>
+  <si>
+    <t>雕像</t>
+  </si>
+  <si>
+    <t>字畫</t>
+  </si>
+  <si>
+    <t>蘇繡</t>
+  </si>
+  <si>
+    <t>黃金存摺</t>
+  </si>
+  <si>
     <t>5套</t>
   </si>
   <si>
-    <t>珍珠飾品</t>
-  </si>
-  <si>
-    <t>手錶</t>
-  </si>
-  <si>
-    <t>寶玉飾品</t>
-  </si>
-  <si>
-    <t>古董家具</t>
-  </si>
-  <si>
-    <t>雕像</t>
-  </si>
-  <si>
-    <t>字畫</t>
-  </si>
-  <si>
-    <t>蘇繡</t>
-  </si>
-  <si>
-    <t>黃金存摺</t>
-  </si>
-  <si>
     <t>6套</t>
   </si>
   <si>
     <t>5支</t>
   </si>
   <si>
-    <t>.10件</t>
+    <t>10件</t>
   </si>
   <si>
     <t>5件</t>
   </si>
   <si>
-    <t>]0件</t>
-  </si>
-  <si>
     <t>12件</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>無法估價</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -1949,27 +1949,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1">
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>88</v>
       </c>
@@ -1977,7 +1998,7 @@
         <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -1985,13 +2006,34 @@
       <c r="E2" s="2">
         <v>5000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1739</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>73</v>
@@ -2002,13 +2044,34 @@
       <c r="E3" s="2">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1739</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>74</v>
@@ -2019,30 +2082,72 @@
       <c r="E4" s="2">
         <v>1500000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1739</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1739</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>76</v>
@@ -2051,49 +2156,112 @@
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1739</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1739</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1739</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>76</v>
@@ -2102,24 +2270,66 @@
         <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1739</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2">
         <v>80000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1739</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="2">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
+++ b/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -266,7 +266,10 @@
     <t>無法估價</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -275,13 +278,13 @@
     <t>新20年期特別增值分紅養老壽險</t>
   </si>
   <si>
-    <t>N116286352</t>
-  </si>
-  <si>
     <t>新20年期終身費特別增值分紅終生保險</t>
   </si>
   <si>
-    <t>N112682349</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>address</t>
   </si>
   <si>
     <t>國際通商法律事務所</t>
@@ -294,6 +297,9 @@
   </si>
   <si>
     <t>合夥</t>
+  </si>
+  <si>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -2339,49 +2345,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>86</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1739</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>85</v>
@@ -2391,6 +2433,24 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>86</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1739</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2400,33 +2460,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="1">
-        <v>90000000</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>115</v>
       </c>
@@ -2434,19 +2515,40 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2">
         <v>90000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1739</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
+++ b/legislator/property/output/normal/李貴敏_2012-04-27_財產申報表_tmp59331.xlsx
@@ -14,14 +14,15 @@
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
     <sheet name="保險" sheetId="7" r:id="rId7"/>
-    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
+    <sheet name="債權" sheetId="8" r:id="rId8"/>
+    <sheet name="事業投資" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="100">
   <si>
     <t>name</t>
   </si>
@@ -282,6 +283,27 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>—般借款</t>
+  </si>
+  <si>
+    <t>李貴琪臺北市士林區華岡路</t>
+  </si>
+  <si>
+    <t>100年</t>
+  </si>
+  <si>
+    <t>長期借款</t>
+  </si>
+  <si>
+    <t>claim</t>
   </si>
   <si>
     <t>address</t>
@@ -2468,13 +2490,111 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>107</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1739</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -2515,22 +2635,22 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>90000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
